--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-02-26 14:03:26</t>
+          <t>2025-02-28 03:26:09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,10 +566,10 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -586,14 +586,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-26 14:03:26</t>
+          <t>2025-02-28 03:26:09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -627,16 +627,16 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -644,17 +644,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-02-26 14:03:26</t>
+          <t>2025-02-28 03:26:09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -688,19 +688,19 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-02-28 03:26:09</t>
+          <t>2025-02-28 04:11:03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,10 +566,10 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -586,14 +586,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-28 03:26:09</t>
+          <t>2025-02-28 04:11:03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -627,16 +627,16 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-02-28 03:26:09</t>
+          <t>2025-02-28 04:11:03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -688,19 +688,19 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-02-28 04:11:03</t>
+          <t>2025-03-01 14:57:10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,10 +566,10 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,22 +578,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-28 04:11:03</t>
+          <t>2025-03-01 14:57:10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -630,31 +630,31 @@
         <v>0.003</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-02-28 04:11:03</t>
+          <t>2025-03-01 14:57:10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -688,7 +688,7 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -701,6 +701,433 @@
       </c>
       <c r="Q4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>200</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>200</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>200</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>200</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>200</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>200</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:57:10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://47.97.114.24:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>200</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -644,17 +644,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -691,31 +691,31 @@
         <v>0.003</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -766,17 +766,17 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://47.97.114.24:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -827,17 +827,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -888,17 +888,17 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -935,31 +935,31 @@
         <v>0.003</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -993,16 +993,16 @@
         <v>200</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1010,17 +1010,17 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-01 14:57:10</t>
+          <t>2025-03-06 08:54:05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1054,7 +1054,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1066,67 +1066,6 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-03-01 14:57:10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DELETE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://47.97.114.24:5230/api/v1/memo/21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>/api/v1/memo/21</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>200</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -583,17 +583,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,10 +627,10 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -639,22 +639,22 @@
         <v>1</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -688,7 +688,7 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -705,17 +705,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -749,10 +749,10 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://47.97.114.24:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -810,16 +810,16 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -827,17 +827,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -871,34 +871,34 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -949,17 +949,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1010,17 +1010,17 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-06 08:54:05</t>
+          <t>2025-03-06 12:03:12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1054,18 +1054,79 @@
         <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-03-06 12:03:12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>200</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,7 +627,7 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -688,7 +688,7 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,7 +749,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -810,10 +810,10 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -830,14 +830,14 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -891,14 +891,14 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -952,14 +952,14 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1013,14 +1013,14 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>13</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1057,7 +1057,7 @@
         <v>0.003</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-06 12:03:12</t>
+          <t>2025-03-09 06:05:12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1115,7 +1115,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,10 +566,10 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,22 +578,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -644,17 +644,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -705,17 +705,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,10 +749,10 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -810,34 +810,34 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -874,31 +874,31 @@
         <v>0.002</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -932,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -949,17 +949,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -993,34 +993,34 @@
         <v>200</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://47.97.114.24:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1057,7 +1057,7 @@
         <v>0.003</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1066,22 +1066,22 @@
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-09 06:05:12</t>
+          <t>2025-03-09 08:29:07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -569,7 +569,7 @@
         <v>0.004</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,22 +578,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,34 +627,34 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -688,16 +688,16 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -705,17 +705,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -749,16 +749,16 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
@@ -766,17 +766,17 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -810,34 +810,34 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -871,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -888,17 +888,17 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -932,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -949,17 +949,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -993,7 +993,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1010,17 +1010,17 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/api/v1/resource/16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1054,10 +1054,10 @@
         <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1066,22 +1066,22 @@
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-09 08:29:07</t>
+          <t>2025-03-10 09:09:54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/api/v1/memo/21</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1127,6 +1127,372 @@
         <v>0</v>
       </c>
       <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>200</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>200</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>200</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>200</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>/api/v1/resource/16</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>200</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-03-10 09:09:54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>/api/v1/memo/21</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>200</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -532,22 +532,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -593,22 +593,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -627,7 +627,7 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -688,10 +688,10 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -715,22 +715,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -749,19 +749,19 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -776,22 +776,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -810,10 +810,10 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -837,22 +837,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -871,19 +871,19 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -898,22 +898,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -932,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -959,22 +959,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -993,7 +993,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1054,7 +1054,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1115,7 +1115,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1142,22 +1142,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1176,7 +1176,7 @@
         <v>200</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1203,22 +1203,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1237,7 +1237,7 @@
         <v>200</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
@@ -1264,22 +1264,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1298,7 +1298,7 @@
         <v>200</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1325,22 +1325,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1359,7 +1359,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/resource/16</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>/api/v1/resource/16</t>
+          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1420,7 +1420,7 @@
         <v>200</v>
       </c>
       <c r="M16" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1447,22 +1447,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10 09:09:54</t>
+          <t>2025-03-15 13:19:21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DELETE</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/api/v1/memo/21</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>/api/v1/memo/21</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1481,7 +1481,7 @@
         <v>200</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>

--- a/algorithm-side-interfaces/algorithm/data/train.xlsx
+++ b/algorithm-side-interfaces/algorithm/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,10 +566,10 @@
         <v>200</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,22 +578,22 @@
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -627,34 +627,34 @@
         <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -688,7 +688,7 @@
         <v>200</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -705,17 +705,17 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,10 +749,10 @@
         <v>200</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -766,17 +766,17 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -810,7 +810,7 @@
         <v>200</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
@@ -827,17 +827,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -871,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -888,17 +888,17 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -932,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -949,17 +949,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -993,34 +993,34 @@
         <v>200</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-15 13:19:21</t>
+          <t>2025-03-18 07:27:53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
+          <t>/memos.api.v1.MemoService/CreateMemo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1054,10 +1054,10 @@
         <v>200</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1066,434 +1066,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>200</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>18</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>200</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>200</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>200</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>200</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.UserService/CreateUserAccessToken</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>200</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>23</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n">
-        <v>23</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-03-15 13:19:21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>http://49.234.6.241:5230/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>/memos.api.v1.MemoService/CreateMemo</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>200</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
